--- a/data/trans_orig/P6513-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{302E96E5-2E8C-433F-9CA7-3EEB19D13590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{903E59E4-8770-4B3A-A130-44330B2AF2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33656484-8527-4992-A1CE-4BE1B804E8FC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D39CDA7B-035C-47E4-9D87-17F09BE41F05}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="336">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,979 +74,973 @@
     <t>12,53%</t>
   </si>
   <si>
-    <t>7,96%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>44,1%</t>
   </si>
   <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>32,4%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>21,64%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>29,9%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>17,02%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1461,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A82D3-B9C4-4D49-B9D1-45C499CCAC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3114FD31-2B57-42C1-8935-D5006D5B5381}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2440,10 +2434,10 @@
         <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2452,13 @@
         <v>77733</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -2473,13 +2467,13 @@
         <v>44159</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -2488,13 +2482,13 @@
         <v>121891</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2503,13 @@
         <v>23670</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -2524,13 +2518,13 @@
         <v>13023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -2539,13 +2533,13 @@
         <v>36693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,7 +2595,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2607,13 @@
         <v>45335</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -2628,13 +2622,13 @@
         <v>20951</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -2643,13 +2637,13 @@
         <v>66285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2658,13 @@
         <v>26065</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -2679,13 +2673,13 @@
         <v>17621</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -2694,13 +2688,13 @@
         <v>43686</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2709,13 @@
         <v>23194</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2730,13 +2724,13 @@
         <v>4029</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -2745,13 +2739,13 @@
         <v>27222</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2760,13 @@
         <v>16404</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2781,13 +2775,13 @@
         <v>7826</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>24</v>
@@ -2796,13 +2790,13 @@
         <v>24230</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,7 +2852,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2870,13 +2864,13 @@
         <v>14824</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2885,13 +2879,13 @@
         <v>3618</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -2900,13 +2894,13 @@
         <v>18442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2915,13 @@
         <v>58740</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -3008,7 +3002,7 @@
         <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3017,13 @@
         <v>20719</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3038,13 +3032,13 @@
         <v>1990</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
@@ -3127,13 +3121,13 @@
         <v>45862</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -3142,13 +3136,13 @@
         <v>33084</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>73</v>
@@ -3160,10 +3154,10 @@
         <v>116</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3172,13 @@
         <v>112793</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>82</v>
@@ -3193,13 +3187,13 @@
         <v>89293</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>189</v>
@@ -3208,13 +3202,13 @@
         <v>202086</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3223,13 @@
         <v>99279</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -3244,13 +3238,13 @@
         <v>37759</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>130</v>
@@ -3259,13 +3253,13 @@
         <v>137039</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3274,13 @@
         <v>76994</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -3295,13 +3289,13 @@
         <v>20411</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>92</v>
@@ -3310,13 +3304,13 @@
         <v>97405</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3366,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3384,13 +3378,13 @@
         <v>134094</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H39" s="7">
         <v>84</v>
@@ -3399,13 +3393,13 @@
         <v>89426</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M39" s="7">
         <v>213</v>
@@ -3414,13 +3408,13 @@
         <v>223520</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3429,13 @@
         <v>106207</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>56</v>
@@ -3450,13 +3444,13 @@
         <v>57407</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M40" s="7">
         <v>163</v>
@@ -3465,13 +3459,13 @@
         <v>163614</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3480,13 @@
         <v>147058</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H41" s="7">
         <v>47</v>
@@ -3501,13 +3495,13 @@
         <v>48002</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M41" s="7">
         <v>187</v>
@@ -3516,13 +3510,13 @@
         <v>195060</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3531,13 @@
         <v>79807</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>41</v>
@@ -3552,13 +3546,13 @@
         <v>44145</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>119</v>
@@ -3567,13 +3561,13 @@
         <v>123951</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3635,13 @@
         <v>370194</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>238</v>
@@ -3656,13 +3650,13 @@
         <v>249287</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>592</v>
@@ -3671,13 +3665,13 @@
         <v>619480</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3686,13 @@
         <v>665721</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H45" s="7">
         <v>403</v>
@@ -3707,13 +3701,13 @@
         <v>421043</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M45" s="7">
         <v>1042</v>
@@ -3722,13 +3716,13 @@
         <v>1086764</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3737,13 @@
         <v>577184</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H46" s="7">
         <v>235</v>
@@ -3758,13 +3752,13 @@
         <v>246908</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="L46" s="7" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="M46" s="7">
         <v>788</v>
@@ -3773,13 +3767,13 @@
         <v>824091</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,10 +3788,10 @@
         <v>291137</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>330</v>
@@ -3824,13 +3818,13 @@
         <v>400136</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P47" s="7" t="s">
-        <v>335</v>
-      </c>
       <c r="Q47" s="7" t="s">
-        <v>336</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,7 +3880,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6513-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{903E59E4-8770-4B3A-A130-44330B2AF2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4D6E2AC-4E1A-4A4B-AB0F-F36197E6BDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D39CDA7B-035C-47E4-9D87-17F09BE41F05}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27466359-C1FD-408F-9669-EAF3305065A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,973 +74,979 @@
     <t>12,53%</t>
   </si>
   <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1455,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3114FD31-2B57-42C1-8935-D5006D5B5381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BCF0E2-AF8E-4DB2-B7B6-7A32E12AA9A0}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2625,10 +2631,10 @@
         <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -2637,13 +2643,13 @@
         <v>66285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2664,13 @@
         <v>26065</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -2921,7 +2927,7 @@
         <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -2930,13 +2936,13 @@
         <v>52211</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -2945,13 +2951,13 @@
         <v>110951</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2972,13 @@
         <v>61734</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -2981,13 +2987,13 @@
         <v>24998</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>83</v>
@@ -2996,13 +3002,13 @@
         <v>86732</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3023,13 @@
         <v>20719</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3032,13 +3038,13 @@
         <v>1990</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
@@ -3047,13 +3053,13 @@
         <v>22709</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3115,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3121,13 +3127,13 @@
         <v>45862</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -3136,13 +3142,13 @@
         <v>33084</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>73</v>
@@ -3154,10 +3160,10 @@
         <v>116</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3178,13 @@
         <v>112793</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>82</v>
@@ -3187,13 +3193,13 @@
         <v>89293</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>189</v>
@@ -3202,13 +3208,13 @@
         <v>202086</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3229,13 @@
         <v>99279</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -3238,13 +3244,13 @@
         <v>37759</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>130</v>
@@ -3253,13 +3259,13 @@
         <v>137039</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3280,13 @@
         <v>76994</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -3289,13 +3295,13 @@
         <v>20411</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>92</v>
@@ -3304,13 +3310,13 @@
         <v>97405</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3372,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3378,13 +3384,13 @@
         <v>134094</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H39" s="7">
         <v>84</v>
@@ -3393,13 +3399,13 @@
         <v>89426</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M39" s="7">
         <v>213</v>
@@ -3408,13 +3414,13 @@
         <v>223520</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3435,13 @@
         <v>106207</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>56</v>
@@ -3444,13 +3450,13 @@
         <v>57407</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>163</v>
@@ -3459,13 +3465,13 @@
         <v>163614</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3486,13 @@
         <v>147058</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>47</v>
@@ -3495,13 +3501,13 @@
         <v>48002</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>187</v>
@@ -3510,13 +3516,13 @@
         <v>195060</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3537,13 @@
         <v>79807</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>41</v>
@@ -3546,13 +3552,13 @@
         <v>44145</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>119</v>
@@ -3561,13 +3567,13 @@
         <v>123951</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>121</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3641,13 @@
         <v>370194</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H44" s="7">
         <v>238</v>
@@ -3650,13 +3656,13 @@
         <v>249287</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M44" s="7">
         <v>592</v>
@@ -3665,13 +3671,13 @@
         <v>619480</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>175</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3692,13 @@
         <v>665721</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H45" s="7">
         <v>403</v>
@@ -3701,13 +3707,13 @@
         <v>421043</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M45" s="7">
         <v>1042</v>
@@ -3716,13 +3722,13 @@
         <v>1086764</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3743,13 @@
         <v>577184</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>322</v>
+        <v>147</v>
       </c>
       <c r="H46" s="7">
         <v>235</v>
@@ -3752,13 +3758,13 @@
         <v>246908</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>324</v>
+        <v>73</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>32</v>
+        <v>325</v>
       </c>
       <c r="M46" s="7">
         <v>788</v>
@@ -3767,7 +3773,7 @@
         <v>824091</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>326</v>
@@ -3818,13 +3824,13 @@
         <v>400136</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3886,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6513-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4D6E2AC-4E1A-4A4B-AB0F-F36197E6BDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7ACC0A-9D6A-4997-9B0B-0EF37D35C85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27466359-C1FD-408F-9669-EAF3305065A0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA86A802-4A84-4292-92BC-F08D2382F7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,232 +74,232 @@
     <t>12,53%</t>
   </si>
   <si>
-    <t>7,76%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>26,96%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -308,745 +308,745 @@
     <t>9,97%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>45,45%</t>
   </si>
   <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
   </si>
   <si>
     <t>55,38%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
   </si>
   <si>
     <t>48,93%</t>
   </si>
   <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>29,26%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>15,54%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
+    <t>29,9%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>17,02%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1461,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BCF0E2-AF8E-4DB2-B7B6-7A32E12AA9A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AF5848-E7C0-42F3-A02B-A4CE5748D329}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2440,10 +2440,10 @@
         <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2458,13 @@
         <v>77733</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -2473,13 +2473,13 @@
         <v>44159</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -2488,13 +2488,13 @@
         <v>121891</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2509,13 @@
         <v>23670</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -2524,13 +2524,13 @@
         <v>13023</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -2539,13 +2539,13 @@
         <v>36693</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,7 +2601,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2613,13 @@
         <v>45335</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -2628,13 +2628,13 @@
         <v>20951</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -2643,13 +2643,13 @@
         <v>66285</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2664,13 @@
         <v>26065</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -2679,13 +2679,13 @@
         <v>17621</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -2694,13 +2694,13 @@
         <v>43686</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2715,13 @@
         <v>23194</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2730,13 +2730,13 @@
         <v>4029</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -2745,13 +2745,13 @@
         <v>27222</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2766,13 @@
         <v>16404</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2781,13 +2781,13 @@
         <v>7826</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>24</v>
@@ -2796,13 +2796,13 @@
         <v>24230</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,7 +2858,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2870,13 +2870,13 @@
         <v>14824</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2885,13 +2885,13 @@
         <v>3618</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -2900,13 +2900,13 @@
         <v>18442</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2921,13 @@
         <v>58740</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -2936,13 +2936,13 @@
         <v>52211</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -2951,13 +2951,13 @@
         <v>110951</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2972,13 @@
         <v>61734</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -2987,13 +2987,13 @@
         <v>24998</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>83</v>
@@ -3002,13 +3002,13 @@
         <v>86732</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3023,13 @@
         <v>20719</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3038,13 +3038,13 @@
         <v>1990</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
@@ -3053,13 +3053,13 @@
         <v>22709</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3115,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3127,13 +3127,13 @@
         <v>45862</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -3142,13 +3142,13 @@
         <v>33084</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>73</v>
@@ -3160,10 +3160,10 @@
         <v>116</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3178,13 @@
         <v>112793</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>82</v>
@@ -3193,13 +3193,13 @@
         <v>89293</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>189</v>
@@ -3208,13 +3208,13 @@
         <v>202086</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3229,13 @@
         <v>99279</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -3244,13 +3244,13 @@
         <v>37759</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>130</v>
@@ -3259,13 +3259,13 @@
         <v>137039</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3280,13 @@
         <v>76994</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -3295,13 +3295,13 @@
         <v>20411</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>92</v>
@@ -3310,13 +3310,13 @@
         <v>97405</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3372,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3384,13 +3384,13 @@
         <v>134094</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H39" s="7">
         <v>84</v>
@@ -3399,13 +3399,13 @@
         <v>89426</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M39" s="7">
         <v>213</v>
@@ -3414,13 +3414,13 @@
         <v>223520</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,7 +3435,7 @@
         <v>106207</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>280</v>
@@ -3489,10 +3489,10 @@
         <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H41" s="7">
         <v>47</v>
@@ -3501,13 +3501,13 @@
         <v>48002</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>187</v>
@@ -3516,13 +3516,13 @@
         <v>195060</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3537,13 @@
         <v>79807</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="H42" s="7">
         <v>41</v>
@@ -3662,7 +3662,7 @@
         <v>309</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="M44" s="7">
         <v>592</v>
@@ -3671,13 +3671,13 @@
         <v>619480</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3692,13 @@
         <v>665721</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H45" s="7">
         <v>403</v>
@@ -3707,13 +3707,13 @@
         <v>421043</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M45" s="7">
         <v>1042</v>
@@ -3722,13 +3722,13 @@
         <v>1086764</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3743,13 @@
         <v>577184</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H46" s="7">
         <v>235</v>
@@ -3761,10 +3761,10 @@
         <v>324</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M46" s="7">
         <v>788</v>
@@ -3773,13 +3773,13 @@
         <v>824091</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,10 +3794,10 @@
         <v>291137</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>330</v>

--- a/data/trans_orig/P6513-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7ACC0A-9D6A-4997-9B0B-0EF37D35C85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F33A3C15-0C48-4AF0-9B58-647C600A073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA86A802-4A84-4292-92BC-F08D2382F7ED}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CA034705-3933-4024-BDB9-6653B9495A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1461,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AF5848-E7C0-42F3-A02B-A4CE5748D329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0232C431-A59A-47B7-A037-6750F247A2B2}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
